--- a/biology/Botanique/Espalier/Espalier.xlsx
+++ b/biology/Botanique/Espalier/Espalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En horticulture, l'espalier est le nom d'une forme d'arbre, le plus souvent fruitier, obtenue par une technique de taille permettant d'avoir un arbre à forme plate. La technique était populaire au Moyen Âge en Europe pour décorer les murs, mais son origine est plus ancienne et pourrait dater de l'Égypte antique. Le mot espalier désigne aussi le treillage (treillage d'espalier[1]) sur lequel le plant s'appuie lors de sa croissance.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En horticulture, l'espalier est le nom d'une forme d'arbre, le plus souvent fruitier, obtenue par une technique de taille permettant d'avoir un arbre à forme plate. La technique était populaire au Moyen Âge en Europe pour décorer les murs, mais son origine est plus ancienne et pourrait dater de l'Égypte antique. Le mot espalier désigne aussi le treillage (treillage d'espalier) sur lequel le plant s'appuie lors de sa croissance.
 Un espalier supporté par un mur est un contre-espalier.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Avantages de la technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espalier et le contre-espalier occupent moins de surface qu'un sujet en port libre, permettant d'optimiser la production fruitière sur un espace réduit. Le mur réfléchit la lumière et restitue la chaleur durant la nuit, permettant d'adoucir localement les températures en climat rigoureux. 
 L'espalier permet aussi de mettre à fruit plus rapidement.
@@ -546,16 +560,18 @@
           <t>Différentes formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe différents types d'espaliers : horizontal (les branches poussent horizontalement à partir du tronc central), palmette (les branches poussent en éventail autour du tronc), et cordon.
 La haie belge est une forme d'espalier qui tresse un ensemble d'espalier en forme de haie.
 On distingue entre autres :
 la palmette simple : tronc central d'où partent de multiples charpentières horizontales.
 la palmette double : tronc divisé en deux branches charpentières verticales rapprochées, d'où partent de multiples sous-charpentières horizontales.
-la palmette à la diable : tronc muni de deux branches charpentières, elles-mêmes dotées de sous-charpentières[2].
-la palmette verrier : tronc à quatre branches ou plus formant des sortes de U imbriquées les uns dans les autres[3].
-la palmette en U, simple ou double : tronc commun d'où partent deux branches formant un U, éventuellement elle-même ramifiées aussi en U[4].
+la palmette à la diable : tronc muni de deux branches charpentières, elles-mêmes dotées de sous-charpentières.
+la palmette verrier : tronc à quatre branches ou plus formant des sortes de U imbriquées les uns dans les autres.
+la palmette en U, simple ou double : tronc commun d'où partent deux branches formant un U, éventuellement elle-même ramifiées aussi en U.
 la palmette Baldassari
 etc.
 Il y a aussi l'espalier Lepage, verrier candélabre, U double, et drapeau marchand.
@@ -587,7 +603,9 @@
           <t>Porte-greffes adaptés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour obtenir de beaux espaliers ou de belles palmettes, il faut utiliser des porte-greffes adaptés. Pour le pommier, on recommande d'utiliser des formes naines type « Pommier Paradis » ou Doucin (série Malling M27, M9, M26, MM106).
 </t>
